--- a/dynamics/src/dynamics/xlsx/task_point_6dof_tested_d.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point_6dof_tested_d.xlsx
@@ -394,42 +394,42 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D1" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="E1" s="2">
         <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
-        <v>0.1768</v>
+        <v>0.28</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1768</v>
+        <v>0.28</v>
       </c>
       <c r="C2" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D2" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -437,79 +437,79 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D3" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
-        <v>-0.1768</v>
+        <v>-0.28</v>
       </c>
       <c r="B4" s="1">
-        <v>0.1768</v>
+        <v>0.28</v>
       </c>
       <c r="C4" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D4" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D5" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
-        <v>-0.1768</v>
+        <v>0.35</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.1768</v>
+        <v>0.35</v>
       </c>
       <c r="C6" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D6" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -517,39 +517,39 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D7" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
-        <v>0.1768</v>
+        <v>-0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>-0.1768</v>
+        <v>0.35</v>
       </c>
       <c r="C8" s="1">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D8" s="2">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
